--- a/configuration/StudentData.xlsx
+++ b/configuration/StudentData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc_STTS\semester5\soft_test\SoftwareTestingProject\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0493D187-B86D-4710-A23C-570235B34C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F95EF0-B47B-4DC3-A131-855530D7C78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E47A7331-4ADE-44C7-B1F8-306822DA6896}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>iSTTS Street 10 No 123</t>
+  </si>
+  <si>
+    <t>AI Engineer</t>
+  </si>
+  <si>
+    <t>Saya adalah orang ahli dalam bidang AI</t>
+  </si>
+  <si>
+    <t>testcase2</t>
+  </si>
+  <si>
+    <t>testcase3</t>
   </si>
 </sst>
 </file>
@@ -415,16 +427,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC33E9FB-6495-4AAF-B98C-3B36281867D2}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -461,6 +474,40 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
